--- a/Pricing.xlsx
+++ b/Pricing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/994a59f0cecaa6ba/Documentos/GitHub/treinamentos/treinamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{B4DB1BF9-14FD-4D85-B2C4-B33120F4754A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15DF70F3-8746-46FE-BE19-ABFF38D13A64}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{B4DB1BF9-14FD-4D85-B2C4-B33120F4754A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{291149D5-FDFE-4D13-A78C-5453BD34B608}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,9 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262EED96-CB2A-4BB0-8BFA-49917D3BE326}">
   <dimension ref="A1:AR460"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4:AM70"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26768,7 +26766,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="AL3" sqref="AL3"/>
+      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -27148,14 +27146,14 @@
         <v>0.2</v>
       </c>
       <c r="AH4" s="30">
-        <f>AB4*AI4</f>
+        <f t="shared" ref="AH4:AH35" si="9">AB4*AI4</f>
         <v>167.4295198895949</v>
       </c>
       <c r="AI4" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ4" s="57">
-        <f>((AH4-AB4-(AH4*(AC4+AD4+AE4+AF4)))/AH4)</f>
+        <f t="shared" ref="AJ4:AJ35" si="10">((AH4-AB4-(AH4*(AC4+AD4+AE4+AF4)))/AH4)</f>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK4" s="32">
@@ -27163,7 +27161,7 @@
         <v>36.836863721238089</v>
       </c>
       <c r="AL4" s="33">
-        <f>AB4*AM4</f>
+        <f t="shared" ref="AL4:AL35" si="11">AB4*AM4</f>
         <v>195.92901966867245</v>
       </c>
       <c r="AM4" s="34">
@@ -27172,12 +27170,12 @@
       <c r="AN4" s="51">
         <v>0.22001415130096982</v>
       </c>
-      <c r="AO4" s="35" t="e">
-        <f>#REF!*AN4</f>
-        <v>#REF!</v>
+      <c r="AO4" s="35">
+        <f>AL4*AN4</f>
+        <v>43.107156977633991</v>
       </c>
       <c r="AP4" s="36">
-        <f>J4</f>
+        <f t="shared" ref="AP4:AP35" si="12">J4</f>
         <v>0</v>
       </c>
       <c r="AR4" s="13"/>
@@ -27251,7 +27249,7 @@
         <v>367022.95997272723</v>
       </c>
       <c r="U5" s="24">
-        <f t="shared" ref="U5:U19" si="9">T5*M5</f>
+        <f t="shared" ref="U5:U19" si="13">T5*M5</f>
         <v>44042.755196727267</v>
       </c>
       <c r="V5" s="24">
@@ -27267,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="24">
-        <f t="shared" ref="Z5:Z19" si="10">T5+V5+W5+X5+Y5</f>
+        <f t="shared" ref="Z5:Z19" si="14">T5+V5+W5+X5+Y5</f>
         <v>372702.95997272723</v>
       </c>
       <c r="AA5" s="26">
@@ -27294,22 +27292,22 @@
         <v>0.2</v>
       </c>
       <c r="AH5" s="30">
-        <f>AB5*AI5</f>
+        <f t="shared" si="9"/>
         <v>93.371778778897436</v>
       </c>
       <c r="AI5" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ5" s="57">
-        <f>((AH5-AB5-(AH5*(AC5+AD5+AE5+AF5)))/AH5)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK5" s="32">
-        <f t="shared" ref="AK5:AK68" si="11">AH5*AJ5</f>
+        <f t="shared" ref="AK5:AK68" si="15">AH5*AJ5</f>
         <v>20.543112663501034</v>
       </c>
       <c r="AL5" s="33">
-        <f>AB5*AM5</f>
+        <f t="shared" si="11"/>
         <v>109.26532604843506</v>
       </c>
       <c r="AM5" s="34">
@@ -27318,12 +27316,12 @@
       <c r="AN5" s="51">
         <v>0.22011880020210739</v>
       </c>
-      <c r="AO5" s="35" t="e">
-        <f>#REF!*AN5</f>
-        <v>#REF!</v>
+      <c r="AO5" s="35">
+        <f t="shared" ref="AO5:AO68" si="16">AL5*AN5</f>
+        <v>24.051352473473596</v>
       </c>
       <c r="AP5" s="36">
-        <f>J5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR5" s="13"/>
@@ -27440,22 +27438,22 @@
         <v>0.2</v>
       </c>
       <c r="AH6" s="30">
-        <f>AB6*AI6</f>
+        <f t="shared" si="9"/>
         <v>79.580947304885029</v>
       </c>
       <c r="AI6" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ6" s="57">
-        <f>((AH6-AB6-(AH6*(AC6+AD6+AE6+AF6)))/AH6)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK6" s="32">
+        <f t="shared" si="15"/>
+        <v>17.508934581011495</v>
+      </c>
+      <c r="AL6" s="33">
         <f t="shared" si="11"/>
-        <v>17.508934581011495</v>
-      </c>
-      <c r="AL6" s="33">
-        <f>AB6*AM6</f>
         <v>93.127048324764388</v>
       </c>
       <c r="AM6" s="34">
@@ -27464,12 +27462,12 @@
       <c r="AN6" s="51">
         <v>0.22006697134622361</v>
       </c>
-      <c r="AO6" s="35" t="e">
-        <f>#REF!*AN6</f>
-        <v>#REF!</v>
+      <c r="AO6" s="35">
+        <f t="shared" si="16"/>
+        <v>20.494187475244306</v>
       </c>
       <c r="AP6" s="36">
-        <f>J6</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR6" s="13"/>
@@ -27543,7 +27541,7 @@
         <v>403021.43750000006</v>
       </c>
       <c r="U7" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48362.572500000002</v>
       </c>
       <c r="V7" s="24">
@@ -27559,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>408701.43750000006</v>
       </c>
       <c r="AA7" s="26">
@@ -27586,22 +27584,22 @@
         <v>0.2</v>
       </c>
       <c r="AH7" s="30">
-        <f>AB7*AI7</f>
+        <f t="shared" si="9"/>
         <v>102.37162972362364</v>
       </c>
       <c r="AI7" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ7" s="57">
-        <f>((AH7-AB7-(AH7*(AC7+AD7+AE7+AF7)))/AH7)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK7" s="32">
+        <f t="shared" si="15"/>
+        <v>22.523207230940201</v>
+      </c>
+      <c r="AL7" s="33">
         <f t="shared" si="11"/>
-        <v>22.523207230940201</v>
-      </c>
-      <c r="AL7" s="33">
-        <f>AB7*AM7</f>
         <v>119.79711264094961</v>
       </c>
       <c r="AM7" s="34">
@@ -27610,12 +27608,12 @@
       <c r="AN7" s="51">
         <v>0.22009283264192239</v>
       </c>
-      <c r="AO7" s="35" t="e">
-        <f>#REF!*AN7</f>
-        <v>#REF!</v>
+      <c r="AO7" s="35">
+        <f t="shared" si="16"/>
+        <v>26.366485863470047</v>
       </c>
       <c r="AP7" s="36">
-        <f>J7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR7" s="13"/>
@@ -27689,7 +27687,7 @@
         <v>278634.89204545459</v>
       </c>
       <c r="U8" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33436.18704545455</v>
       </c>
       <c r="V8" s="24">
@@ -27705,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>284314.89204545459</v>
       </c>
       <c r="AA8" s="26">
@@ -27732,22 +27730,22 @@
         <v>0.2</v>
       </c>
       <c r="AH8" s="30">
-        <f>AB8*AI8</f>
+        <f t="shared" si="9"/>
         <v>71.274193234199728</v>
       </c>
       <c r="AI8" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ8" s="57">
-        <f>((AH8-AB8-(AH8*(AC8+AD8+AE8+AF8)))/AH8)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK8" s="32">
+        <f t="shared" si="15"/>
+        <v>15.68133113408379</v>
+      </c>
+      <c r="AL8" s="33">
         <f t="shared" si="11"/>
-        <v>15.68133113408379</v>
-      </c>
-      <c r="AL8" s="33">
-        <f>AB8*AM8</f>
         <v>83.406336094499736</v>
       </c>
       <c r="AM8" s="34">
@@ -27756,12 +27754,12 @@
       <c r="AN8" s="51">
         <v>0.22001704649521225</v>
       </c>
-      <c r="AO8" s="35" t="e">
-        <f>#REF!*AN8</f>
-        <v>#REF!</v>
+      <c r="AO8" s="35">
+        <f t="shared" si="16"/>
+        <v>18.350815726498848</v>
       </c>
       <c r="AP8" s="36">
-        <f>J8</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR8" s="13"/>
@@ -27835,7 +27833,7 @@
         <v>117637.11363636365</v>
       </c>
       <c r="U9" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14116.453636363638</v>
       </c>
       <c r="V9" s="24">
@@ -27851,7 +27849,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>123317.11363636365</v>
       </c>
       <c r="AA9" s="26">
@@ -27878,22 +27876,22 @@
         <v>0.2</v>
       </c>
       <c r="AH9" s="30">
-        <f>AB9*AI9</f>
+        <f t="shared" si="9"/>
         <v>70.911344003739814</v>
       </c>
       <c r="AI9" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ9" s="57">
-        <f>((AH9-AB9-(AH9*(AC9+AD9+AE9+AF9)))/AH9)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK9" s="32">
+        <f t="shared" si="15"/>
+        <v>15.601499168593943</v>
+      </c>
+      <c r="AL9" s="33">
         <f t="shared" si="11"/>
-        <v>15.601499168593943</v>
-      </c>
-      <c r="AL9" s="33">
-        <f>AB9*AM9</f>
         <v>82.981723433253237</v>
       </c>
       <c r="AM9" s="34">
@@ -27902,12 +27900,12 @@
       <c r="AN9" s="51">
         <v>0.22002000322393409</v>
       </c>
-      <c r="AO9" s="35" t="e">
-        <f>#REF!*AN9</f>
-        <v>#REF!</v>
+      <c r="AO9" s="35">
+        <f t="shared" si="16"/>
+        <v>18.257639057311984</v>
       </c>
       <c r="AP9" s="36">
-        <f>J9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR9" s="13"/>
@@ -28024,22 +28022,22 @@
         <v>0.2</v>
       </c>
       <c r="AH10" s="30">
-        <f>AB10*AI10</f>
+        <f t="shared" si="9"/>
         <v>90.9945188128588</v>
       </c>
       <c r="AI10" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ10" s="57">
-        <f>((AH10-AB10-(AH10*(AC10+AD10+AE10+AF10)))/AH10)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK10" s="32">
+        <f t="shared" si="15"/>
+        <v>20.020081829651271</v>
+      </c>
+      <c r="AL10" s="33">
         <f t="shared" si="11"/>
-        <v>20.020081829651271</v>
-      </c>
-      <c r="AL10" s="33">
-        <f>AB10*AM10</f>
         <v>106.48341390444355</v>
       </c>
       <c r="AM10" s="34">
@@ -28048,12 +28046,12 @@
       <c r="AN10" s="51">
         <v>0.22006138772655529</v>
       </c>
-      <c r="AO10" s="35" t="e">
-        <f>#REF!*AN10</f>
-        <v>#REF!</v>
+      <c r="AO10" s="35">
+        <f t="shared" si="16"/>
+        <v>23.432887833673021</v>
       </c>
       <c r="AP10" s="36">
-        <f>J10</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR10" s="13"/>
@@ -28127,7 +28125,7 @@
         <v>154021.86363636362</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" ref="U11" si="12">T11*M11</f>
+        <f t="shared" ref="U11" si="17">T11*M11</f>
         <v>18482.623636363634</v>
       </c>
       <c r="V11" s="24">
@@ -28143,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" ref="Z11" si="13">T11+V11+W11+X11+Y11</f>
+        <f t="shared" ref="Z11" si="18">T11+V11+W11+X11+Y11</f>
         <v>159701.86363636362</v>
       </c>
       <c r="AA11" s="26">
@@ -28170,22 +28168,22 @@
         <v>0.2</v>
       </c>
       <c r="AH11" s="30">
-        <f>AB11*AI11</f>
+        <f t="shared" si="9"/>
         <v>171.17924074355557</v>
       </c>
       <c r="AI11" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ11" s="57">
-        <f>((AH11-AB11-(AH11*(AC11+AD11+AE11+AF11)))/AH11)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK11" s="32">
+        <f t="shared" si="15"/>
+        <v>37.661855372537794</v>
+      </c>
+      <c r="AL11" s="33">
         <f t="shared" si="11"/>
-        <v>37.661855372537794</v>
-      </c>
-      <c r="AL11" s="33">
-        <f>AB11*AM11</f>
         <v>200.31701009850912</v>
       </c>
       <c r="AM11" s="34">
@@ -28194,12 +28192,12 @@
       <c r="AN11" s="51">
         <v>0.22015984618056081</v>
       </c>
-      <c r="AO11" s="35" t="e">
-        <f>#REF!*AN11</f>
-        <v>#REF!</v>
+      <c r="AO11" s="35">
+        <f t="shared" si="16"/>
+        <v>44.10176213063761</v>
       </c>
       <c r="AP11" s="36">
-        <f>J11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR11" s="13"/>
@@ -28273,7 +28271,7 @@
         <v>149082.32306818181</v>
       </c>
       <c r="U12" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17889.878768181818</v>
       </c>
       <c r="V12" s="24">
@@ -28289,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>154762.32306818181</v>
       </c>
       <c r="AA12" s="26">
@@ -28316,22 +28314,22 @@
         <v>0.2</v>
       </c>
       <c r="AH12" s="30">
-        <f>AB12*AI12</f>
+        <f t="shared" si="9"/>
         <v>83.539910323217214</v>
       </c>
       <c r="AI12" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ12" s="57">
-        <f>((AH12-AB12-(AH12*(AC12+AD12+AE12+AF12)))/AH12)</f>
+        <f t="shared" si="10"/>
         <v>0.24001415130096987</v>
       </c>
       <c r="AK12" s="32">
+        <f t="shared" si="15"/>
+        <v>20.050760675986112</v>
+      </c>
+      <c r="AL12" s="33">
         <f t="shared" si="11"/>
-        <v>20.050760675986112</v>
-      </c>
-      <c r="AL12" s="33">
-        <f>AB12*AM12</f>
         <v>97.759897678915593</v>
       </c>
       <c r="AM12" s="34">
@@ -28340,12 +28338,12 @@
       <c r="AN12" s="51">
         <v>0.2899590242429837</v>
       </c>
-      <c r="AO12" s="35" t="e">
-        <f>#REF!*AN12</f>
-        <v>#REF!</v>
+      <c r="AO12" s="35">
+        <f t="shared" si="16"/>
+        <v>28.34636454107229</v>
       </c>
       <c r="AP12" s="36">
-        <f>J12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR12" s="13"/>
@@ -28419,7 +28417,7 @@
         <v>149082.32306818181</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17889.878768181818</v>
       </c>
       <c r="V13" s="24">
@@ -28435,7 +28433,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>154762.32306818181</v>
       </c>
       <c r="AA13" s="26">
@@ -28462,22 +28460,22 @@
         <v>0.2</v>
       </c>
       <c r="AH13" s="30">
-        <f>AB13*AI13</f>
+        <f t="shared" si="9"/>
         <v>83.539910323217214</v>
       </c>
       <c r="AI13" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ13" s="57">
-        <f>((AH13-AB13-(AH13*(AC13+AD13+AE13+AF13)))/AH13)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK13" s="32">
+        <f t="shared" si="15"/>
+        <v>18.379962469521772</v>
+      </c>
+      <c r="AL13" s="33">
         <f t="shared" si="11"/>
-        <v>18.379962469521772</v>
-      </c>
-      <c r="AL13" s="33">
-        <f>AB13*AM13</f>
         <v>97.759897678915593</v>
       </c>
       <c r="AM13" s="34">
@@ -28486,12 +28484,12 @@
       <c r="AN13" s="51">
         <v>0.22000561997695176</v>
       </c>
-      <c r="AO13" s="35" t="e">
-        <f>#REF!*AN13</f>
-        <v>#REF!</v>
+      <c r="AO13" s="35">
+        <f t="shared" si="16"/>
+        <v>21.507726897733193</v>
       </c>
       <c r="AP13" s="36">
-        <f>J13</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR13" s="13"/>
@@ -28565,7 +28563,7 @@
         <v>149082.32306818181</v>
       </c>
       <c r="U14" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17889.878768181818</v>
       </c>
       <c r="V14" s="24">
@@ -28581,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>154762.32306818181</v>
       </c>
       <c r="AA14" s="26">
@@ -28608,22 +28606,22 @@
         <v>0.2</v>
       </c>
       <c r="AH14" s="30">
-        <f>AB14*AI14</f>
+        <f t="shared" si="9"/>
         <v>83.539910323217214</v>
       </c>
       <c r="AI14" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ14" s="57">
-        <f>((AH14-AB14-(AH14*(AC14+AD14+AE14+AF14)))/AH14)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK14" s="32">
+        <f t="shared" si="15"/>
+        <v>18.379962469521772</v>
+      </c>
+      <c r="AL14" s="33">
         <f t="shared" si="11"/>
-        <v>18.379962469521772</v>
-      </c>
-      <c r="AL14" s="33">
-        <f>AB14*AM14</f>
         <v>97.759897678915593</v>
       </c>
       <c r="AM14" s="34">
@@ -28632,12 +28630,12 @@
       <c r="AN14" s="51">
         <v>0.22000561997695176</v>
       </c>
-      <c r="AO14" s="35" t="e">
-        <f>#REF!*AN14</f>
-        <v>#REF!</v>
+      <c r="AO14" s="35">
+        <f t="shared" si="16"/>
+        <v>21.507726897733193</v>
       </c>
       <c r="AP14" s="36">
-        <f>J14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR14" s="13"/>
@@ -28711,7 +28709,7 @@
         <v>212035.12481818179</v>
       </c>
       <c r="U15" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>25444.214978181815</v>
       </c>
       <c r="V15" s="24">
@@ -28727,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>217715.12481818179</v>
       </c>
       <c r="AA15" s="26">
@@ -28754,22 +28752,22 @@
         <v>0.2</v>
       </c>
       <c r="AH15" s="30">
-        <f>AB15*AI15</f>
+        <f t="shared" si="9"/>
         <v>100.6426955677222</v>
       </c>
       <c r="AI15" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ15" s="57">
-        <f>((AH15-AB15-(AH15*(AC15+AD15+AE15+AF15)))/AH15)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK15" s="32">
+        <f t="shared" si="15"/>
+        <v>22.142817249974289</v>
+      </c>
+      <c r="AL15" s="33">
         <f t="shared" si="11"/>
-        <v>22.142817249974289</v>
-      </c>
-      <c r="AL15" s="33">
-        <f>AB15*AM15</f>
         <v>117.77388295922543</v>
       </c>
       <c r="AM15" s="34">
@@ -28778,12 +28776,12 @@
       <c r="AN15" s="51">
         <v>0.22001642698246635</v>
       </c>
-      <c r="AO15" s="35" t="e">
-        <f>#REF!*AN15</f>
-        <v>#REF!</v>
+      <c r="AO15" s="35">
+        <f t="shared" si="16"/>
+        <v>25.912188920539961</v>
       </c>
       <c r="AP15" s="36">
-        <f>J15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR15" s="13"/>
@@ -28857,7 +28855,7 @@
         <v>224711.93409090911</v>
       </c>
       <c r="U16" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26965.432090909093</v>
       </c>
       <c r="V16" s="24">
@@ -28873,7 +28871,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>230391.93409090911</v>
       </c>
       <c r="AA16" s="26">
@@ -28900,22 +28898,22 @@
         <v>0.2</v>
       </c>
       <c r="AH16" s="30">
-        <f>AB16*AI16</f>
+        <f t="shared" si="9"/>
         <v>150.40496260791141</v>
       </c>
       <c r="AI16" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ16" s="57">
-        <f>((AH16-AB16-(AH16*(AC16+AD16+AE16+AF16)))/AH16)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK16" s="32">
+        <f t="shared" si="15"/>
+        <v>33.091220199633746</v>
+      </c>
+      <c r="AL16" s="33">
         <f t="shared" si="11"/>
-        <v>33.091220199633746</v>
-      </c>
-      <c r="AL16" s="33">
-        <f>AB16*AM16</f>
         <v>176.00657815003856</v>
       </c>
       <c r="AM16" s="34">
@@ -28924,12 +28922,12 @@
       <c r="AN16" s="51">
         <v>0.22001291926637806</v>
       </c>
-      <c r="AO16" s="35" t="e">
-        <f>#REF!*AN16</f>
-        <v>#REF!</v>
+      <c r="AO16" s="35">
+        <f t="shared" si="16"/>
+        <v>38.723721068875896</v>
       </c>
       <c r="AP16" s="36">
-        <f>J16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR16" s="13"/>
@@ -29003,7 +29001,7 @@
         <v>334519.82443181815</v>
       </c>
       <c r="U17" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40142.378931818173</v>
       </c>
       <c r="V17" s="24">
@@ -29019,7 +29017,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>340199.82443181815</v>
       </c>
       <c r="AA17" s="26">
@@ -29046,22 +29044,22 @@
         <v>0.2</v>
       </c>
       <c r="AH17" s="30">
-        <f>AB17*AI17</f>
+        <f t="shared" si="9"/>
         <v>121.23845093662119</v>
       </c>
       <c r="AI17" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ17" s="57">
-        <f>((AH17-AB17-(AH17*(AC17+AD17+AE17+AF17)))/AH17)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK17" s="32">
+        <f t="shared" si="15"/>
+        <v>26.674174887864996</v>
+      </c>
+      <c r="AL17" s="33">
         <f t="shared" si="11"/>
-        <v>26.674174887864996</v>
-      </c>
-      <c r="AL17" s="33">
-        <f>AB17*AM17</f>
         <v>141.87540437208685</v>
       </c>
       <c r="AM17" s="34">
@@ -29070,12 +29068,12 @@
       <c r="AN17" s="51">
         <v>0.27001918367346933</v>
       </c>
-      <c r="AO17" s="35" t="e">
-        <f>#REF!*AN17</f>
-        <v>#REF!</v>
+      <c r="AO17" s="35">
+        <f t="shared" si="16"/>
+        <v>38.309080871894253</v>
       </c>
       <c r="AP17" s="36">
-        <f>J17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR17" s="13"/>
@@ -29149,7 +29147,7 @@
         <v>152375.98632883522</v>
       </c>
       <c r="U18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18285.118359460226</v>
       </c>
       <c r="V18" s="24">
@@ -29165,7 +29163,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>158055.98632883522</v>
       </c>
       <c r="AA18" s="26">
@@ -29192,22 +29190,22 @@
         <v>0.2</v>
       </c>
       <c r="AH18" s="30">
-        <f>AB18*AI18</f>
+        <f t="shared" si="9"/>
         <v>169.42359311001366</v>
       </c>
       <c r="AI18" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ18" s="57">
-        <f>((AH18-AB18-(AH18*(AC18+AD18+AE18+AF18)))/AH18)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK18" s="32">
+        <f t="shared" si="15"/>
+        <v>37.27558804846052</v>
+      </c>
+      <c r="AL18" s="33">
         <f t="shared" si="11"/>
-        <v>37.27558804846052</v>
-      </c>
-      <c r="AL18" s="33">
-        <f>AB18*AM18</f>
         <v>198.26251982731728</v>
       </c>
       <c r="AM18" s="34">
@@ -29216,12 +29214,12 @@
       <c r="AN18" s="51">
         <v>0.27001918367346928</v>
       </c>
-      <c r="AO18" s="35" t="e">
-        <f>#REF!*AN18</f>
-        <v>#REF!</v>
+      <c r="AO18" s="35">
+        <f t="shared" si="16"/>
+        <v>53.53468375681723</v>
       </c>
       <c r="AP18" s="36">
-        <f>J18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR18" s="13"/>
@@ -29295,7 +29293,7 @@
         <v>609144.12922727247</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>73097.295507272691</v>
       </c>
       <c r="V19" s="24">
@@ -29311,7 +29309,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>614824.12922727247</v>
       </c>
       <c r="AA19" s="26">
@@ -29338,22 +29336,22 @@
         <v>0.2</v>
       </c>
       <c r="AH19" s="30">
-        <f>AB19*AI19</f>
+        <f t="shared" si="9"/>
         <v>153.90362855512365</v>
       </c>
       <c r="AI19" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ19" s="57">
-        <f>((AH19-AB19-(AH19*(AC19+AD19+AE19+AF19)))/AH19)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK19" s="32">
+        <f t="shared" si="15"/>
+        <v>33.860976218695249</v>
+      </c>
+      <c r="AL19" s="33">
         <f t="shared" si="11"/>
-        <v>33.860976218695249</v>
-      </c>
-      <c r="AL19" s="33">
-        <f>AB19*AM19</f>
         <v>180.10077963635641</v>
       </c>
       <c r="AM19" s="34">
@@ -29362,12 +29360,12 @@
       <c r="AN19" s="51">
         <v>0.22001561133753164</v>
       </c>
-      <c r="AO19" s="35" t="e">
-        <f>#REF!*AN19</f>
-        <v>#REF!</v>
+      <c r="AO19" s="35">
+        <f t="shared" si="16"/>
+        <v>39.624983134059022</v>
       </c>
       <c r="AP19" s="36">
-        <f>J19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR19" s="13"/>
@@ -29484,22 +29482,22 @@
         <v>0.2</v>
       </c>
       <c r="AH20" s="30">
-        <f>AB20*AI20</f>
+        <f t="shared" si="9"/>
         <v>141.20143609215671</v>
       </c>
       <c r="AI20" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ20" s="57">
-        <f>((AH20-AB20-(AH20*(AC20+AD20+AE20+AF20)))/AH20)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK20" s="32">
+        <f t="shared" si="15"/>
+        <v>31.06631412429401</v>
+      </c>
+      <c r="AL20" s="33">
         <f t="shared" si="11"/>
-        <v>31.06631412429401</v>
-      </c>
-      <c r="AL20" s="33">
-        <f>AB20*AM20</f>
         <v>165.23644676033183</v>
       </c>
       <c r="AM20" s="34">
@@ -29508,12 +29506,12 @@
       <c r="AN20" s="51">
         <v>0.27000397253486558</v>
       </c>
-      <c r="AO20" s="35" t="e">
-        <f>#REF!*AN20</f>
-        <v>#REF!</v>
+      <c r="AO20" s="35">
+        <f t="shared" si="16"/>
+        <v>44.614497032835416</v>
       </c>
       <c r="AP20" s="36">
-        <f>J20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR20" s="13"/>
@@ -29587,7 +29585,7 @@
         <v>251243.30613636365</v>
       </c>
       <c r="U21" s="24">
-        <f t="shared" ref="U21:U32" si="14">T21*M21</f>
+        <f t="shared" ref="U21:U32" si="19">T21*M21</f>
         <v>30149.196736363636</v>
       </c>
       <c r="V21" s="24">
@@ -29603,7 +29601,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="24">
-        <f t="shared" ref="Z21:Z32" si="15">T21+V21+W21+X21+Y21</f>
+        <f t="shared" ref="Z21:Z32" si="20">T21+V21+W21+X21+Y21</f>
         <v>256923.30613636365</v>
       </c>
       <c r="AA21" s="26">
@@ -29630,22 +29628,22 @@
         <v>0.2</v>
       </c>
       <c r="AH21" s="30">
-        <f>AB21*AI21</f>
+        <f t="shared" si="9"/>
         <v>155.54820113715451</v>
       </c>
       <c r="AI21" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ21" s="57">
-        <f>((AH21-AB21-(AH21*(AC21+AD21+AE21+AF21)))/AH21)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK21" s="32">
+        <f t="shared" si="15"/>
+        <v>34.222805459583618</v>
+      </c>
+      <c r="AL21" s="33">
         <f t="shared" si="11"/>
-        <v>34.222805459583618</v>
-      </c>
-      <c r="AL21" s="33">
-        <f>AB21*AM21</f>
         <v>182.02528789501807</v>
       </c>
       <c r="AM21" s="34">
@@ -29654,12 +29652,12 @@
       <c r="AN21" s="51">
         <v>0.22014415343174365</v>
       </c>
-      <c r="AO21" s="35" t="e">
-        <f>#REF!*AN21</f>
-        <v>#REF!</v>
+      <c r="AO21" s="35">
+        <f t="shared" si="16"/>
+        <v>40.071802906818171</v>
       </c>
       <c r="AP21" s="36">
-        <f>J21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR21" s="13"/>
@@ -29733,7 +29731,7 @@
         <v>211338.48431818181</v>
       </c>
       <c r="U22" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>25360.618118181817</v>
       </c>
       <c r="V22" s="24">
@@ -29749,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>217018.48431818181</v>
       </c>
       <c r="AA22" s="26">
@@ -29776,22 +29774,22 @@
         <v>0.2</v>
       </c>
       <c r="AH22" s="30">
-        <f>AB22*AI22</f>
+        <f t="shared" si="9"/>
         <v>173.89112467285887</v>
       </c>
       <c r="AI22" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ22" s="57">
-        <f>((AH22-AB22-(AH22*(AC22+AD22+AE22+AF22)))/AH22)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK22" s="32">
+        <f t="shared" si="15"/>
+        <v>38.258508213670204</v>
+      </c>
+      <c r="AL22" s="33">
         <f t="shared" si="11"/>
-        <v>38.258508213670204</v>
-      </c>
-      <c r="AL22" s="33">
-        <f>AB22*AM22</f>
         <v>203.49050519109491</v>
       </c>
       <c r="AM22" s="34">
@@ -29800,12 +29798,12 @@
       <c r="AN22" s="51">
         <v>0.22000901690673152</v>
       </c>
-      <c r="AO22" s="35" t="e">
-        <f>#REF!*AN22</f>
-        <v>#REF!</v>
+      <c r="AO22" s="35">
+        <f t="shared" si="16"/>
+        <v>44.769745996946938</v>
       </c>
       <c r="AP22" s="36">
-        <f>J22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR22" s="13"/>
@@ -29879,7 +29877,7 @@
         <v>196421.57954545453</v>
       </c>
       <c r="U23" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>23570.589545454543</v>
       </c>
       <c r="V23" s="24">
@@ -29895,7 +29893,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>202101.57954545453</v>
       </c>
       <c r="AA23" s="26">
@@ -29922,22 +29920,22 @@
         <v>0.2</v>
       </c>
       <c r="AH23" s="30">
-        <f>AB23*AI23</f>
+        <f t="shared" si="9"/>
         <v>182.77598654377587</v>
       </c>
       <c r="AI23" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ23" s="57">
-        <f>((AH23-AB23-(AH23*(AC23+AD23+AE23+AF23)))/AH23)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK23" s="32">
+        <f t="shared" si="15"/>
+        <v>40.213303557626347</v>
+      </c>
+      <c r="AL23" s="33">
         <f t="shared" si="11"/>
-        <v>40.213303557626347</v>
-      </c>
-      <c r="AL23" s="33">
-        <f>AB23*AM23</f>
         <v>213.88772951215995</v>
       </c>
       <c r="AM23" s="34">
@@ -29946,12 +29944,12 @@
       <c r="AN23" s="51">
         <v>0.22015840164275921</v>
       </c>
-      <c r="AO23" s="35" t="e">
-        <f>#REF!*AN23</f>
-        <v>#REF!</v>
+      <c r="AO23" s="35">
+        <f t="shared" si="16"/>
+        <v>47.089180660395954</v>
       </c>
       <c r="AP23" s="36">
-        <f>J23</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR23" s="13"/>
@@ -30025,7 +30023,7 @@
         <v>255318.4610775568</v>
       </c>
       <c r="U24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>30638.215329306815</v>
       </c>
       <c r="V24" s="24">
@@ -30041,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>260998.4610775568</v>
       </c>
       <c r="AA24" s="26">
@@ -30068,22 +30066,22 @@
         <v>0.2</v>
       </c>
       <c r="AH24" s="30">
-        <f>AB24*AI24</f>
+        <f t="shared" si="9"/>
         <v>179.41870627946128</v>
       </c>
       <c r="AI24" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ24" s="57">
-        <f>((AH24-AB24-(AH24*(AC24+AD24+AE24+AF24)))/AH24)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK24" s="32">
+        <f t="shared" si="15"/>
+        <v>39.474654389593681</v>
+      </c>
+      <c r="AL24" s="33">
         <f t="shared" si="11"/>
-        <v>39.474654389593681</v>
-      </c>
-      <c r="AL24" s="33">
-        <f>AB24*AM24</f>
         <v>209.95898008151056</v>
       </c>
       <c r="AM24" s="34">
@@ -30092,12 +30090,12 @@
       <c r="AN24" s="51">
         <v>0.22000249877908881</v>
       </c>
-      <c r="AO24" s="35" t="e">
-        <f>#REF!*AN24</f>
-        <v>#REF!</v>
+      <c r="AO24" s="35">
+        <f t="shared" si="16"/>
+        <v>46.191500259041263</v>
       </c>
       <c r="AP24" s="36">
-        <f>J24</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR24" s="13"/>
@@ -30171,7 +30169,7 @@
         <v>177363.81756534093</v>
       </c>
       <c r="U25" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>21283.658107840911</v>
       </c>
       <c r="V25" s="24">
@@ -30187,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>183043.81756534093</v>
       </c>
       <c r="AA25" s="26">
@@ -30214,22 +30212,22 @@
         <v>0.2</v>
       </c>
       <c r="AH25" s="30">
-        <f>AB25*AI25</f>
+        <f t="shared" si="9"/>
         <v>267.37904395860585</v>
       </c>
       <c r="AI25" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ25" s="57">
-        <f>((AH25-AB25-(AH25*(AC25+AD25+AE25+AF25)))/AH25)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK25" s="32">
+        <f t="shared" si="15"/>
+        <v>58.8271734322174</v>
+      </c>
+      <c r="AL25" s="33">
         <f t="shared" si="11"/>
-        <v>58.8271734322174</v>
-      </c>
-      <c r="AL25" s="33">
-        <f>AB25*AM25</f>
         <v>312.8917409385237</v>
       </c>
       <c r="AM25" s="34">
@@ -30238,12 +30236,12 @@
       <c r="AN25" s="51">
         <v>0.21990513820618399</v>
       </c>
-      <c r="AO25" s="35" t="e">
-        <f>#REF!*AN25</f>
-        <v>#REF!</v>
+      <c r="AO25" s="35">
+        <f t="shared" si="16"/>
+        <v>68.806501534659574</v>
       </c>
       <c r="AP25" s="36">
-        <f>J25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR25" s="13"/>
@@ -30317,7 +30315,7 @@
         <v>257462.29425349997</v>
       </c>
       <c r="U26" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>30895.475310419995</v>
       </c>
       <c r="V26" s="24">
@@ -30333,7 +30331,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>263142.29425349995</v>
       </c>
       <c r="AA26" s="26">
@@ -30360,22 +30358,22 @@
         <v>0.2</v>
       </c>
       <c r="AH26" s="30">
-        <f>AB26*AI26</f>
+        <f t="shared" si="9"/>
         <v>436.59823055012072</v>
       </c>
       <c r="AI26" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ26" s="57">
-        <f>((AH26-AB26-(AH26*(AC26+AD26+AE26+AF26)))/AH26)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK26" s="32">
+        <f t="shared" si="15"/>
+        <v>96.057789153990029</v>
+      </c>
+      <c r="AL26" s="33">
         <f t="shared" si="11"/>
-        <v>96.057789153990029</v>
-      </c>
-      <c r="AL26" s="33">
-        <f>AB26*AM26</f>
         <v>510.91506060084163</v>
       </c>
       <c r="AM26" s="34">
@@ -30384,12 +30382,12 @@
       <c r="AN26" s="51">
         <v>0.21984692924838908</v>
       </c>
-      <c r="AO26" s="35" t="e">
-        <f>#REF!*AN26</f>
-        <v>#REF!</v>
+      <c r="AO26" s="35">
+        <f t="shared" si="16"/>
+        <v>112.32310717984966</v>
       </c>
       <c r="AP26" s="36">
-        <f>J26</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR26" s="13"/>
@@ -30463,7 +30461,7 @@
         <v>269853.01659956813</v>
       </c>
       <c r="U27" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>32382.361991948175</v>
       </c>
       <c r="V27" s="24">
@@ -30479,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>275533.01659956813</v>
       </c>
       <c r="AA27" s="26">
@@ -30506,22 +30504,22 @@
         <v>0.2</v>
       </c>
       <c r="AH27" s="30">
-        <f>AB27*AI27</f>
+        <f t="shared" si="9"/>
         <v>457.09623081988627</v>
       </c>
       <c r="AI27" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ27" s="57">
-        <f>((AH27-AB27-(AH27*(AC27+AD27+AE27+AF27)))/AH27)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK27" s="32">
+        <f t="shared" si="15"/>
+        <v>100.56763928670954</v>
+      </c>
+      <c r="AL27" s="33">
         <f t="shared" si="11"/>
-        <v>100.56763928670954</v>
-      </c>
-      <c r="AL27" s="33">
-        <f>AB27*AM27</f>
         <v>534.90218724775343</v>
       </c>
       <c r="AM27" s="34">
@@ -30530,12 +30528,12 @@
       <c r="AN27" s="51">
         <v>0.22022370722184439</v>
       </c>
-      <c r="AO27" s="35" t="e">
-        <f>#REF!*AN27</f>
-        <v>#REF!</v>
+      <c r="AO27" s="35">
+        <f t="shared" si="16"/>
+        <v>117.79814267677344</v>
       </c>
       <c r="AP27" s="36">
-        <f>J27</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR27" s="13"/>
@@ -30609,7 +30607,7 @@
         <v>225732.68749999994</v>
       </c>
       <c r="U28" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>27087.922499999993</v>
       </c>
       <c r="V28" s="24">
@@ -30625,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>231412.68749999994</v>
       </c>
       <c r="AA28" s="26">
@@ -30652,22 +30650,22 @@
         <v>0.2</v>
       </c>
       <c r="AH28" s="30">
-        <f>AB28*AI28</f>
+        <f t="shared" si="9"/>
         <v>51.598490489276067</v>
       </c>
       <c r="AI28" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ28" s="57">
-        <f>((AH28-AB28-(AH28*(AC28+AD28+AE28+AF28)))/AH28)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK28" s="32">
+        <f t="shared" si="15"/>
+        <v>11.352398093409244</v>
+      </c>
+      <c r="AL28" s="33">
         <f t="shared" si="11"/>
-        <v>11.352398093409244</v>
-      </c>
-      <c r="AL28" s="33">
-        <f>AB28*AM28</f>
         <v>60.381476722943496</v>
       </c>
       <c r="AM28" s="34">
@@ -30676,12 +30674,12 @@
       <c r="AN28" s="51">
         <v>0.22001643789245942</v>
       </c>
-      <c r="AO28" s="35" t="e">
-        <f>#REF!*AN28</f>
-        <v>#REF!</v>
+      <c r="AO28" s="35">
+        <f t="shared" si="16"/>
+        <v>13.284917423268482</v>
       </c>
       <c r="AP28" s="36">
-        <f>J28</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR28" s="13"/>
@@ -30755,7 +30753,7 @@
         <v>847305.24249999982</v>
       </c>
       <c r="U29" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>101676.62909999998</v>
       </c>
       <c r="V29" s="24">
@@ -30771,7 +30769,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>852985.24249999982</v>
       </c>
       <c r="AA29" s="26">
@@ -30798,22 +30796,22 @@
         <v>0.2</v>
       </c>
       <c r="AH29" s="30">
-        <f>AB29*AI29</f>
+        <f t="shared" si="9"/>
         <v>213.44543886253814</v>
       </c>
       <c r="AI29" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ29" s="57">
-        <f>((AH29-AB29-(AH29*(AC29+AD29+AE29+AF29)))/AH29)</f>
+        <f t="shared" si="10"/>
         <v>0.23001415130096994</v>
       </c>
       <c r="AK29" s="32">
+        <f t="shared" si="15"/>
+        <v>49.095471469029775</v>
+      </c>
+      <c r="AL29" s="33">
         <f t="shared" si="11"/>
-        <v>49.095471469029775</v>
-      </c>
-      <c r="AL29" s="33">
-        <f>AB29*AM29</f>
         <v>249.77767132500523</v>
       </c>
       <c r="AM29" s="34">
@@ -30822,12 +30820,12 @@
       <c r="AN29" s="51">
         <v>0.2300768952025713</v>
       </c>
-      <c r="AO29" s="35" t="e">
-        <f>#REF!*AN29</f>
-        <v>#REF!</v>
+      <c r="AO29" s="35">
+        <f t="shared" si="16"/>
+        <v>57.468071109385527</v>
       </c>
       <c r="AP29" s="36">
-        <f>J29</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR29" s="13"/>
@@ -30901,7 +30899,7 @@
         <v>304845.54930397728</v>
       </c>
       <c r="U30" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>36581.465916477275</v>
       </c>
       <c r="V30" s="24">
@@ -30917,7 +30915,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>310525.54930397728</v>
       </c>
       <c r="AA30" s="26">
@@ -30944,22 +30942,22 @@
         <v>0.2</v>
       </c>
       <c r="AH30" s="30">
-        <f>AB30*AI30</f>
+        <f t="shared" si="9"/>
         <v>332.06197824362698</v>
       </c>
       <c r="AI30" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ30" s="57">
-        <f>((AH30-AB30-(AH30*(AC30+AD30+AE30+AF30)))/AH30)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK30" s="32">
+        <f t="shared" si="15"/>
+        <v>73.058334322592756</v>
+      </c>
+      <c r="AL30" s="33">
         <f t="shared" si="11"/>
-        <v>73.058334322592756</v>
-      </c>
-      <c r="AL30" s="33">
-        <f>AB30*AM30</f>
         <v>388.58486788599538</v>
       </c>
       <c r="AM30" s="34">
@@ -30968,12 +30966,12 @@
       <c r="AN30" s="51">
         <v>0.22000675437815831</v>
       </c>
-      <c r="AO30" s="35" t="e">
-        <f>#REF!*AN30</f>
-        <v>#REF!</v>
+      <c r="AO30" s="35">
+        <f t="shared" si="16"/>
+        <v>85.49129558406328</v>
       </c>
       <c r="AP30" s="36">
-        <f>J30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR30" s="13"/>
@@ -31047,7 +31045,7 @@
         <v>192240.1722329545</v>
       </c>
       <c r="U31" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>23068.82066795454</v>
       </c>
       <c r="V31" s="24">
@@ -31063,7 +31061,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>197920.1722329545</v>
       </c>
       <c r="AA31" s="26">
@@ -31090,22 +31088,22 @@
         <v>0.2</v>
       </c>
       <c r="AH31" s="30">
-        <f>AB31*AI31</f>
+        <f t="shared" si="9"/>
         <v>176.62207125531197</v>
       </c>
       <c r="AI31" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ31" s="57">
-        <f>((AH31-AB31-(AH31*(AC31+AD31+AE31+AF31)))/AH31)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK31" s="32">
+        <f t="shared" si="15"/>
+        <v>38.859355108256899</v>
+      </c>
+      <c r="AL31" s="33">
         <f t="shared" si="11"/>
-        <v>38.859355108256899</v>
-      </c>
-      <c r="AL31" s="33">
-        <f>AB31*AM31</f>
         <v>206.68630774144793</v>
       </c>
       <c r="AM31" s="34">
@@ -31114,12 +31112,12 @@
       <c r="AN31" s="51">
         <v>0.22000566218359929</v>
       </c>
-      <c r="AO31" s="35" t="e">
-        <f>#REF!*AN31</f>
-        <v>#REF!</v>
+      <c r="AO31" s="35">
+        <f t="shared" si="16"/>
+        <v>45.472157998940439</v>
       </c>
       <c r="AP31" s="36">
-        <f>J31</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR31" s="13"/>
@@ -31193,7 +31191,7 @@
         <v>216397.90810795451</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>25967.748972954541</v>
       </c>
       <c r="V32" s="24">
@@ -31209,7 +31207,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>222077.90810795451</v>
       </c>
       <c r="AA32" s="26">
@@ -31236,22 +31234,22 @@
         <v>0.2</v>
       </c>
       <c r="AH32" s="30">
-        <f>AB32*AI32</f>
+        <f t="shared" si="9"/>
         <v>198.09616677601883</v>
       </c>
       <c r="AI32" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ32" s="57">
-        <f>((AH32-AB32-(AH32*(AC32+AD32+AE32+AF32)))/AH32)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK32" s="32">
+        <f t="shared" si="15"/>
+        <v>43.583960009201192</v>
+      </c>
+      <c r="AL32" s="33">
         <f t="shared" si="11"/>
-        <v>43.583960009201192</v>
-      </c>
-      <c r="AL32" s="33">
-        <f>AB32*AM32</f>
         <v>231.81567851440323</v>
       </c>
       <c r="AM32" s="34">
@@ -31260,12 +31258,12 @@
       <c r="AN32" s="51">
         <v>0.22001462974138505</v>
       </c>
-      <c r="AO32" s="35" t="e">
-        <f>#REF!*AN32</f>
-        <v>#REF!</v>
+      <c r="AO32" s="35">
+        <f t="shared" si="16"/>
+        <v>51.002840676594374</v>
       </c>
       <c r="AP32" s="36">
-        <f>J32</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR32" s="13"/>
@@ -31382,22 +31380,22 @@
         <v>0.2</v>
       </c>
       <c r="AH33" s="30">
-        <f>AB33*AI33</f>
+        <f t="shared" si="9"/>
         <v>90.736321601356138</v>
       </c>
       <c r="AI33" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ33" s="57">
-        <f>((AH33-AB33-(AH33*(AC33+AD33+AE33+AF33)))/AH33)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK33" s="32">
+        <f t="shared" si="15"/>
+        <v>19.963274789294235</v>
+      </c>
+      <c r="AL33" s="33">
         <f t="shared" si="11"/>
-        <v>19.963274789294235</v>
-      </c>
-      <c r="AL33" s="33">
-        <f>AB33*AM33</f>
         <v>106.18126690811782</v>
       </c>
       <c r="AM33" s="34">
@@ -31406,12 +31404,12 @@
       <c r="AN33" s="51">
         <v>0.22001734388761135</v>
       </c>
-      <c r="AO33" s="35" t="e">
-        <f>#REF!*AN33</f>
-        <v>#REF!</v>
+      <c r="AO33" s="35">
+        <f t="shared" si="16"/>
+        <v>23.361720315745604</v>
       </c>
       <c r="AP33" s="36">
-        <f>J33</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR33" s="13"/>
@@ -31485,7 +31483,7 @@
         <v>262621.8009943181</v>
       </c>
       <c r="U34" s="24">
-        <f t="shared" ref="U34:U36" si="16">T34*M34</f>
+        <f t="shared" ref="U34:U36" si="21">T34*M34</f>
         <v>31514.616119318169</v>
       </c>
       <c r="V34" s="24">
@@ -31501,7 +31499,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="24">
-        <f t="shared" ref="Z34:Z36" si="17">T34+V34+W34+X34+Y34</f>
+        <f t="shared" ref="Z34:Z36" si="22">T34+V34+W34+X34+Y34</f>
         <v>268301.8009943181</v>
       </c>
       <c r="AA34" s="26">
@@ -31528,22 +31526,22 @@
         <v>0.2</v>
       </c>
       <c r="AH34" s="30">
-        <f>AB34*AI34</f>
+        <f t="shared" si="9"/>
         <v>287.02215452162477</v>
       </c>
       <c r="AI34" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ34" s="57">
-        <f>((AH34-AB34-(AH34*(AC34+AD34+AE34+AF34)))/AH34)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK34" s="32">
+        <f t="shared" si="15"/>
+        <v>63.148935731651129</v>
+      </c>
+      <c r="AL34" s="33">
         <f t="shared" si="11"/>
-        <v>63.148935731651129</v>
-      </c>
-      <c r="AL34" s="33">
-        <f>AB34*AM34</f>
         <v>335.87846035570584</v>
       </c>
       <c r="AM34" s="34">
@@ -31552,12 +31550,12 @@
       <c r="AN34" s="51">
         <v>0.22000688908539887</v>
       </c>
-      <c r="AO34" s="35" t="e">
-        <f>#REF!*AN34</f>
-        <v>#REF!</v>
+      <c r="AO34" s="35">
+        <f t="shared" si="16"/>
+        <v>73.895575173652318</v>
       </c>
       <c r="AP34" s="36">
-        <f>J34</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR34" s="13"/>
@@ -31631,7 +31629,7 @@
         <v>154021.86363636362</v>
       </c>
       <c r="U35" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>18482.623636363634</v>
       </c>
       <c r="V35" s="24">
@@ -31647,7 +31645,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>159701.86363636362</v>
       </c>
       <c r="AA35" s="26">
@@ -31674,22 +31672,22 @@
         <v>0.2</v>
       </c>
       <c r="AH35" s="30">
-        <f>AB35*AI35</f>
+        <f t="shared" si="9"/>
         <v>171.17924074355557</v>
       </c>
       <c r="AI35" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ35" s="57">
-        <f>((AH35-AB35-(AH35*(AC35+AD35+AE35+AF35)))/AH35)</f>
+        <f t="shared" si="10"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK35" s="32">
+        <f t="shared" si="15"/>
+        <v>37.661855372537794</v>
+      </c>
+      <c r="AL35" s="33">
         <f t="shared" si="11"/>
-        <v>37.661855372537794</v>
-      </c>
-      <c r="AL35" s="33">
-        <f>AB35*AM35</f>
         <v>200.31701009850912</v>
       </c>
       <c r="AM35" s="34">
@@ -31698,12 +31696,12 @@
       <c r="AN35" s="51">
         <v>0.22000678638548141</v>
       </c>
-      <c r="AO35" s="35" t="e">
-        <f>#REF!*AN35</f>
-        <v>#REF!</v>
+      <c r="AO35" s="35">
+        <f t="shared" si="16"/>
+        <v>44.071101650121015</v>
       </c>
       <c r="AP35" s="36">
-        <f>J35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR35" s="13"/>
@@ -31777,7 +31775,7 @@
         <v>154021.86363636362</v>
       </c>
       <c r="U36" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>18482.623636363634</v>
       </c>
       <c r="V36" s="24">
@@ -31793,7 +31791,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>159701.86363636362</v>
       </c>
       <c r="AA36" s="26">
@@ -31820,22 +31818,22 @@
         <v>0.2</v>
       </c>
       <c r="AH36" s="30">
-        <f>AB36*AI36</f>
+        <f t="shared" ref="AH36:AH67" si="23">AB36*AI36</f>
         <v>171.17924074355557</v>
       </c>
       <c r="AI36" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ36" s="57">
-        <f>((AH36-AB36-(AH36*(AC36+AD36+AE36+AF36)))/AH36)</f>
+        <f t="shared" ref="AJ36:AJ70" si="24">((AH36-AB36-(AH36*(AC36+AD36+AE36+AF36)))/AH36)</f>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK36" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>37.661855372537794</v>
       </c>
       <c r="AL36" s="33">
-        <f>AB36*AM36</f>
+        <f t="shared" ref="AL36:AL67" si="25">AB36*AM36</f>
         <v>200.31701009850912</v>
       </c>
       <c r="AM36" s="34">
@@ -31844,12 +31842,12 @@
       <c r="AN36" s="51">
         <v>0.22015984843993897</v>
       </c>
-      <c r="AO36" s="35" t="e">
-        <f>#REF!*AN36</f>
-        <v>#REF!</v>
+      <c r="AO36" s="35">
+        <f t="shared" si="16"/>
+        <v>44.101762583229487</v>
       </c>
       <c r="AP36" s="36">
-        <f>J36</f>
+        <f t="shared" ref="AP36:AP70" si="26">J36</f>
         <v>0</v>
       </c>
       <c r="AR36" s="13"/>
@@ -31966,22 +31964,22 @@
         <v>0.2</v>
       </c>
       <c r="AH37" s="30">
-        <f>AB37*AI37</f>
+        <f t="shared" si="23"/>
         <v>177.05103022030116</v>
       </c>
       <c r="AI37" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ37" s="57">
-        <f>((AH37-AB37-(AH37*(AC37+AD37+AE37+AF37)))/AH37)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK37" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>38.95373215088194</v>
       </c>
       <c r="AL37" s="33">
-        <f>AB37*AM37</f>
+        <f t="shared" si="25"/>
         <v>207.18828319681469</v>
       </c>
       <c r="AM37" s="34">
@@ -31990,12 +31988,12 @@
       <c r="AN37" s="51">
         <v>0.22000774598333667</v>
       </c>
-      <c r="AO37" s="35" t="e">
-        <f>#REF!*AN37</f>
-        <v>#REF!</v>
+      <c r="AO37" s="35">
+        <f t="shared" si="16"/>
+        <v>45.583027180288425</v>
       </c>
       <c r="AP37" s="36">
-        <f>J37</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR37" s="13"/>
@@ -32112,22 +32110,22 @@
         <v>0.2</v>
       </c>
       <c r="AH38" s="30">
-        <f>AB38*AI38</f>
+        <f t="shared" si="23"/>
         <v>189.74026848253712</v>
       </c>
       <c r="AI38" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ38" s="57">
-        <f>((AH38-AB38-(AH38*(AC38+AD38+AE38+AF38)))/AH38)</f>
+        <f t="shared" si="24"/>
         <v>0.23001415130096994</v>
       </c>
       <c r="AK38" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>43.64294682262895</v>
       </c>
       <c r="AL38" s="33">
-        <f>AB38*AM38</f>
+        <f t="shared" si="25"/>
         <v>222.03745683537929</v>
       </c>
       <c r="AM38" s="34">
@@ -32136,12 +32134,12 @@
       <c r="AN38" s="51">
         <v>0.23000646258929658</v>
       </c>
-      <c r="AO38" s="35" t="e">
-        <f>#REF!*AN38</f>
-        <v>#REF!</v>
+      <c r="AO38" s="35">
+        <f t="shared" si="16"/>
+        <v>51.070050009029217</v>
       </c>
       <c r="AP38" s="36">
-        <f>J38</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR38" s="13"/>
@@ -32258,22 +32256,22 @@
         <v>0.2</v>
       </c>
       <c r="AH39" s="30">
-        <f>AB39*AI39</f>
+        <f t="shared" si="23"/>
         <v>296.44099493212235</v>
       </c>
       <c r="AI39" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ39" s="57">
-        <f>((AH39-AB39-(AH39*(AC39+AD39+AE39+AF39)))/AH39)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK39" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>65.221213910806028</v>
       </c>
       <c r="AL39" s="33">
-        <f>AB39*AM39</f>
+        <f t="shared" si="25"/>
         <v>346.90055591723745</v>
       </c>
       <c r="AM39" s="34">
@@ -32282,12 +32280,12 @@
       <c r="AN39" s="51">
         <v>0.27008382331305381</v>
       </c>
-      <c r="AO39" s="35" t="e">
-        <f>#REF!*AN39</f>
-        <v>#REF!</v>
+      <c r="AO39" s="35">
+        <f t="shared" si="16"/>
+        <v>93.692228451551301</v>
       </c>
       <c r="AP39" s="36">
-        <f>J39</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR39" s="13"/>
@@ -32404,22 +32402,22 @@
         <v>0.2</v>
       </c>
       <c r="AH40" s="30">
-        <f>AB40*AI40</f>
+        <f t="shared" si="23"/>
         <v>149.78597530257741</v>
       </c>
       <c r="AI40" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ40" s="57">
-        <f>((AH40-AB40-(AH40*(AC40+AD40+AE40+AF40)))/AH40)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK40" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32.955034232984609</v>
       </c>
       <c r="AL40" s="33">
-        <f>AB40*AM40</f>
+        <f t="shared" si="25"/>
         <v>175.28222813098927</v>
       </c>
       <c r="AM40" s="34">
@@ -32428,12 +32426,12 @@
       <c r="AN40" s="51">
         <v>0.22001497404894405</v>
       </c>
-      <c r="AO40" s="35" t="e">
-        <f>#REF!*AN40</f>
-        <v>#REF!</v>
+      <c r="AO40" s="35">
+        <f t="shared" si="16"/>
+        <v>38.564714873480696</v>
       </c>
       <c r="AP40" s="36">
-        <f>J40</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR40" s="13"/>
@@ -32507,7 +32505,7 @@
         <v>312075.79765853658</v>
       </c>
       <c r="U41" s="24">
-        <f t="shared" ref="U41:U70" si="18">T41*M41</f>
+        <f t="shared" ref="U41:U70" si="27">T41*M41</f>
         <v>56173.643578536583</v>
       </c>
       <c r="V41" s="24">
@@ -32523,7 +32521,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="24">
-        <f t="shared" ref="Z41:Z70" si="19">T41+V41+W41+X41+Y41</f>
+        <f t="shared" ref="Z41:Z70" si="28">T41+V41+W41+X41+Y41</f>
         <v>317755.79765853658</v>
       </c>
       <c r="AA41" s="26">
@@ -32550,22 +32548,22 @@
         <v>0.2</v>
       </c>
       <c r="AH41" s="30">
-        <f>AB41*AI41</f>
+        <f t="shared" si="23"/>
         <v>143.82345252015534</v>
       </c>
       <c r="AI41" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ41" s="57">
-        <f>((AH41-AB41-(AH41*(AC41+AD41+AE41+AF41)))/AH41)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK41" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>31.643194843397318</v>
       </c>
       <c r="AL41" s="33">
-        <f>AB41*AM41</f>
+        <f t="shared" si="25"/>
         <v>168.30477729506484</v>
       </c>
       <c r="AM41" s="34">
@@ -32574,12 +32572,12 @@
       <c r="AN41" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO41" s="35" t="e">
-        <f>#REF!*AN41</f>
-        <v>#REF!</v>
+      <c r="AO41" s="35">
+        <f t="shared" si="16"/>
+        <v>37.029571208886985</v>
       </c>
       <c r="AP41" s="36">
-        <f>J41</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR41" s="13"/>
@@ -32653,7 +32651,7 @@
         <v>312075.79765853658</v>
       </c>
       <c r="U42" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>56173.643578536583</v>
       </c>
       <c r="V42" s="24">
@@ -32669,7 +32667,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>317755.79765853658</v>
       </c>
       <c r="AA42" s="26">
@@ -32696,22 +32694,22 @@
         <v>0.2</v>
       </c>
       <c r="AH42" s="30">
-        <f>AB42*AI42</f>
+        <f t="shared" si="23"/>
         <v>143.82345252015534</v>
       </c>
       <c r="AI42" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ42" s="57">
-        <f>((AH42-AB42-(AH42*(AC42+AD42+AE42+AF42)))/AH42)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK42" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>31.643194843397318</v>
       </c>
       <c r="AL42" s="33">
-        <f>AB42*AM42</f>
+        <f t="shared" si="25"/>
         <v>168.30477729506484</v>
       </c>
       <c r="AM42" s="34">
@@ -32720,12 +32718,12 @@
       <c r="AN42" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO42" s="35" t="e">
-        <f>#REF!*AN42</f>
-        <v>#REF!</v>
+      <c r="AO42" s="35">
+        <f t="shared" si="16"/>
+        <v>37.029571208886985</v>
       </c>
       <c r="AP42" s="36">
-        <f>J42</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR42" s="13"/>
@@ -32799,7 +32797,7 @@
         <v>406831.63319512201</v>
       </c>
       <c r="U43" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>73229.693975121962</v>
       </c>
       <c r="V43" s="24">
@@ -32815,7 +32813,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>412511.63319512201</v>
       </c>
       <c r="AA43" s="26">
@@ -32842,22 +32840,22 @@
         <v>0.2</v>
       </c>
       <c r="AH43" s="30">
-        <f>AB43*AI43</f>
+        <f t="shared" si="23"/>
         <v>186.32819160625621</v>
       </c>
       <c r="AI43" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ43" s="57">
-        <f>((AH43-AB43-(AH43*(AC43+AD43+AE43+AF43)))/AH43)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK43" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>40.994838939694979</v>
       </c>
       <c r="AL43" s="33">
-        <f>AB43*AM43</f>
+        <f t="shared" si="25"/>
         <v>218.04458342903675</v>
       </c>
       <c r="AM43" s="34">
@@ -32866,12 +32864,12 @@
       <c r="AN43" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO43" s="35" t="e">
-        <f>#REF!*AN43</f>
-        <v>#REF!</v>
+      <c r="AO43" s="35">
+        <f t="shared" si="16"/>
+        <v>47.973073364652315</v>
       </c>
       <c r="AP43" s="36">
-        <f>J43</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR43" s="13"/>
@@ -32945,7 +32943,7 @@
         <v>534818.22182995116</v>
       </c>
       <c r="U44" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>96267.27992939121</v>
       </c>
       <c r="V44" s="24">
@@ -32961,7 +32959,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>540498.22182995116</v>
       </c>
       <c r="AA44" s="26">
@@ -32988,22 +32986,22 @@
         <v>0.2</v>
       </c>
       <c r="AH44" s="30">
-        <f>AB44*AI44</f>
+        <f t="shared" si="23"/>
         <v>243.73928956806063</v>
       </c>
       <c r="AI44" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ44" s="57">
-        <f>((AH44-AB44-(AH44*(AC44+AD44+AE44+AF44)))/AH44)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK44" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>53.626092933018221</v>
       </c>
       <c r="AL44" s="33">
-        <f>AB44*AM44</f>
+        <f t="shared" si="25"/>
         <v>285.22807741012122</v>
       </c>
       <c r="AM44" s="34">
@@ -33012,12 +33010,12 @@
       <c r="AN44" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO44" s="35" t="e">
-        <f>#REF!*AN44</f>
-        <v>#REF!</v>
+      <c r="AO44" s="35">
+        <f t="shared" si="16"/>
+        <v>62.754448049418002</v>
       </c>
       <c r="AP44" s="36">
-        <f>J44</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR44" s="13"/>
@@ -33091,7 +33089,7 @@
         <v>517799.68568907317</v>
       </c>
       <c r="U45" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>93203.943424033161</v>
       </c>
       <c r="V45" s="24">
@@ -33107,7 +33105,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>523479.68568907317</v>
       </c>
       <c r="AA45" s="26">
@@ -33134,22 +33132,22 @@
         <v>0.2</v>
       </c>
       <c r="AH45" s="30">
-        <f>AB45*AI45</f>
+        <f t="shared" si="23"/>
         <v>236.10526434735431</v>
       </c>
       <c r="AI45" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ45" s="57">
-        <f>((AH45-AB45-(AH45*(AC45+AD45+AE45+AF45)))/AH45)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK45" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>51.946499353074323</v>
       </c>
       <c r="AL45" s="33">
-        <f>AB45*AM45</f>
+        <f t="shared" si="25"/>
         <v>276.29460451594332</v>
       </c>
       <c r="AM45" s="34">
@@ -33158,12 +33156,12 @@
       <c r="AN45" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO45" s="35" t="e">
-        <f>#REF!*AN45</f>
-        <v>#REF!</v>
+      <c r="AO45" s="35">
+        <f t="shared" si="16"/>
+        <v>60.788950242438503</v>
       </c>
       <c r="AP45" s="36">
-        <f>J45</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR45" s="13"/>
@@ -33237,7 +33235,7 @@
         <v>517799.68568907317</v>
       </c>
       <c r="U46" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>93203.943424033161</v>
       </c>
       <c r="V46" s="24">
@@ -33253,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>523479.68568907317</v>
       </c>
       <c r="AA46" s="26">
@@ -33280,22 +33278,22 @@
         <v>0.2</v>
       </c>
       <c r="AH46" s="30">
-        <f>AB46*AI46</f>
+        <f t="shared" si="23"/>
         <v>236.10526434735431</v>
       </c>
       <c r="AI46" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ46" s="57">
-        <f>((AH46-AB46-(AH46*(AC46+AD46+AE46+AF46)))/AH46)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK46" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>51.946499353074323</v>
       </c>
       <c r="AL46" s="33">
-        <f>AB46*AM46</f>
+        <f t="shared" si="25"/>
         <v>276.29460451594332</v>
       </c>
       <c r="AM46" s="34">
@@ -33304,12 +33302,12 @@
       <c r="AN46" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO46" s="35" t="e">
-        <f>#REF!*AN46</f>
-        <v>#REF!</v>
+      <c r="AO46" s="35">
+        <f t="shared" si="16"/>
+        <v>60.788950242438503</v>
       </c>
       <c r="AP46" s="36">
-        <f>J46</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR46" s="13"/>
@@ -33383,7 +33381,7 @@
         <v>553383.89762000006</v>
       </c>
       <c r="U47" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>99609.101571600011</v>
       </c>
       <c r="V47" s="24">
@@ -33399,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>559063.89762000006</v>
       </c>
       <c r="AA47" s="26">
@@ -33426,22 +33424,22 @@
         <v>0.2</v>
       </c>
       <c r="AH47" s="30">
-        <f>AB47*AI47</f>
+        <f t="shared" si="23"/>
         <v>252.06731708155854</v>
       </c>
       <c r="AI47" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ47" s="57">
-        <f>((AH47-AB47-(AH47*(AC47+AD47+AE47+AF47)))/AH47)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK47" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>55.458376838411588</v>
       </c>
       <c r="AL47" s="33">
-        <f>AB47*AM47</f>
+        <f t="shared" si="25"/>
         <v>294.97368420376989</v>
       </c>
       <c r="AM47" s="34">
@@ -33450,12 +33448,12 @@
       <c r="AN47" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO47" s="35" t="e">
-        <f>#REF!*AN47</f>
-        <v>#REF!</v>
+      <c r="AO47" s="35">
+        <f t="shared" si="16"/>
+        <v>64.898627475213829</v>
       </c>
       <c r="AP47" s="36">
-        <f>J47</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR47" s="13"/>
@@ -33529,7 +33527,7 @@
         <v>599798.08709512197</v>
       </c>
       <c r="U48" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>107963.65567712195</v>
       </c>
       <c r="V48" s="24">
@@ -33545,7 +33543,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>605478.08709512197</v>
       </c>
       <c r="AA48" s="26">
@@ -33572,22 +33570,22 @@
         <v>0.2</v>
       </c>
       <c r="AH48" s="30">
-        <f>AB48*AI48</f>
+        <f t="shared" si="23"/>
         <v>272.8873858653032</v>
       </c>
       <c r="AI48" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ48" s="57">
-        <f>((AH48-AB48-(AH48*(AC48+AD48+AE48+AF48)))/AH48)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK48" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>60.039086601894972</v>
       </c>
       <c r="AL48" s="33">
-        <f>AB48*AM48</f>
+        <f t="shared" si="25"/>
         <v>319.33770118789158</v>
       </c>
       <c r="AM48" s="34">
@@ -33596,12 +33594,12 @@
       <c r="AN48" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO48" s="35" t="e">
-        <f>#REF!*AN48</f>
-        <v>#REF!</v>
+      <c r="AO48" s="35">
+        <f t="shared" si="16"/>
+        <v>70.259076039703388</v>
       </c>
       <c r="AP48" s="36">
-        <f>J48</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR48" s="13"/>
@@ -33675,7 +33673,7 @@
         <v>886405.70710400015</v>
       </c>
       <c r="U49" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>159553.02727872002</v>
       </c>
       <c r="V49" s="24">
@@ -33691,7 +33689,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>892085.70710400015</v>
       </c>
       <c r="AA49" s="26">
@@ -33718,22 +33716,22 @@
         <v>0.2</v>
       </c>
       <c r="AH49" s="30">
-        <f>AB49*AI49</f>
+        <f t="shared" si="23"/>
         <v>401.45131060492662</v>
       </c>
       <c r="AI49" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ49" s="57">
-        <f>((AH49-AB49-(AH49*(AC49+AD49+AE49+AF49)))/AH49)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK49" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>88.324969391405006</v>
       </c>
       <c r="AL49" s="33">
-        <f>AB49*AM49</f>
+        <f t="shared" si="25"/>
         <v>469.78550606484282</v>
       </c>
       <c r="AM49" s="34">
@@ -33742,12 +33740,12 @@
       <c r="AN49" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO49" s="35" t="e">
-        <f>#REF!*AN49</f>
-        <v>#REF!</v>
+      <c r="AO49" s="35">
+        <f t="shared" si="16"/>
+        <v>103.3598459254264</v>
       </c>
       <c r="AP49" s="36">
-        <f>J49</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR49" s="13"/>
@@ -33821,7 +33819,7 @@
         <v>540233.21060204878</v>
       </c>
       <c r="U50" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>97241.977908368775</v>
       </c>
       <c r="V50" s="24">
@@ -33837,7 +33835,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>545913.21060204878</v>
       </c>
       <c r="AA50" s="26">
@@ -33864,22 +33862,22 @@
         <v>0.2</v>
       </c>
       <c r="AH50" s="30">
-        <f>AB50*AI50</f>
+        <f t="shared" si="23"/>
         <v>246.16829759283081</v>
       </c>
       <c r="AI50" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ50" s="57">
-        <f>((AH50-AB50-(AH50*(AC50+AD50+AE50+AF50)))/AH50)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK50" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54.160509072091266</v>
       </c>
       <c r="AL50" s="33">
-        <f>AB50*AM50</f>
+        <f t="shared" si="25"/>
         <v>288.07054605826869</v>
       </c>
       <c r="AM50" s="34">
@@ -33888,12 +33886,12 @@
       <c r="AN50" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO50" s="35" t="e">
-        <f>#REF!*AN50</f>
-        <v>#REF!</v>
+      <c r="AO50" s="35">
+        <f t="shared" si="16"/>
+        <v>63.379833715275105</v>
       </c>
       <c r="AP50" s="36">
-        <f>J50</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR50" s="13"/>
@@ -33967,7 +33965,7 @@
         <v>507356.49305717065</v>
       </c>
       <c r="U51" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>91324.168750290715</v>
       </c>
       <c r="V51" s="24">
@@ -33983,7 +33981,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>513036.49305717065</v>
       </c>
       <c r="AA51" s="26">
@@ -34010,22 +34008,22 @@
         <v>0.2</v>
       </c>
       <c r="AH51" s="30">
-        <f>AB51*AI51</f>
+        <f t="shared" si="23"/>
         <v>231.42074887101168</v>
       </c>
       <c r="AI51" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ51" s="57">
-        <f>((AH51-AB51-(AH51*(AC51+AD51+AE51+AF51)))/AH51)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK51" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50.915839656290537</v>
       </c>
       <c r="AL51" s="33">
-        <f>AB51*AM51</f>
+        <f t="shared" si="25"/>
         <v>270.81270069451585</v>
       </c>
       <c r="AM51" s="34">
@@ -34034,12 +34032,12 @@
       <c r="AN51" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO51" s="35" t="e">
-        <f>#REF!*AN51</f>
-        <v>#REF!</v>
+      <c r="AO51" s="35">
+        <f t="shared" si="16"/>
+        <v>59.582849315428334</v>
       </c>
       <c r="AP51" s="36">
-        <f>J51</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR51" s="13"/>
@@ -34113,7 +34111,7 @@
         <v>546421.76919873175</v>
       </c>
       <c r="U52" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>98355.918455771709</v>
       </c>
       <c r="V52" s="24">
@@ -34129,7 +34127,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>552101.76919873175</v>
       </c>
       <c r="AA52" s="26">
@@ -34156,22 +34154,22 @@
         <v>0.2</v>
       </c>
       <c r="AH52" s="30">
-        <f>AB52*AI52</f>
+        <f t="shared" si="23"/>
         <v>248.94430676399685</v>
       </c>
       <c r="AI52" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ52" s="57">
-        <f>((AH52-AB52-(AH52*(AC52+AD52+AE52+AF52)))/AH52)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK52" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54.771270373889074</v>
       </c>
       <c r="AL52" s="33">
-        <f>AB52*AM52</f>
+        <f t="shared" si="25"/>
         <v>291.3190816561517</v>
       </c>
       <c r="AM52" s="34">
@@ -34180,12 +34178,12 @@
       <c r="AN52" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO52" s="35" t="e">
-        <f>#REF!*AN52</f>
-        <v>#REF!</v>
+      <c r="AO52" s="35">
+        <f t="shared" si="16"/>
+        <v>64.094560190540406</v>
       </c>
       <c r="AP52" s="36">
-        <f>J52</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR52" s="13"/>
@@ -34259,7 +34257,7 @@
         <v>503101.85902195121</v>
       </c>
       <c r="U53" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>90558.334623951218</v>
       </c>
       <c r="V53" s="24">
@@ -34275,7 +34273,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>508781.85902195121</v>
       </c>
       <c r="AA53" s="26">
@@ -34302,22 +34300,22 @@
         <v>0.2</v>
       </c>
       <c r="AH53" s="30">
-        <f>AB53*AI53</f>
+        <f t="shared" si="23"/>
         <v>229.51224256583512</v>
       </c>
       <c r="AI53" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ53" s="57">
-        <f>((AH53-AB53-(AH53*(AC53+AD53+AE53+AF53)))/AH53)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK53" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50.495941261304566</v>
       </c>
       <c r="AL53" s="33">
-        <f>AB53*AM53</f>
+        <f t="shared" si="25"/>
         <v>268.57933247097145</v>
       </c>
       <c r="AM53" s="34">
@@ -34326,12 +34324,12 @@
       <c r="AN53" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO53" s="35" t="e">
-        <f>#REF!*AN53</f>
-        <v>#REF!</v>
+      <c r="AO53" s="35">
+        <f t="shared" si="16"/>
+        <v>59.091474863683473</v>
       </c>
       <c r="AP53" s="36">
-        <f>J53</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR53" s="13"/>
@@ -34405,7 +34403,7 @@
         <v>546421.76919873175</v>
       </c>
       <c r="U54" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>98355.918455771709</v>
       </c>
       <c r="V54" s="24">
@@ -34421,7 +34419,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>552101.76919873175</v>
       </c>
       <c r="AA54" s="26">
@@ -34448,22 +34446,22 @@
         <v>0.2</v>
       </c>
       <c r="AH54" s="30">
-        <f>AB54*AI54</f>
+        <f t="shared" si="23"/>
         <v>248.94430676399685</v>
       </c>
       <c r="AI54" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ54" s="57">
-        <f>((AH54-AB54-(AH54*(AC54+AD54+AE54+AF54)))/AH54)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK54" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54.771270373889074</v>
       </c>
       <c r="AL54" s="33">
-        <f>AB54*AM54</f>
+        <f t="shared" si="25"/>
         <v>291.3190816561517</v>
       </c>
       <c r="AM54" s="34">
@@ -34472,12 +34470,12 @@
       <c r="AN54" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO54" s="35" t="e">
-        <f>#REF!*AN54</f>
-        <v>#REF!</v>
+      <c r="AO54" s="35">
+        <f t="shared" si="16"/>
+        <v>64.094560190540406</v>
       </c>
       <c r="AP54" s="36">
-        <f>J54</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR54" s="13"/>
@@ -34551,7 +34549,7 @@
         <v>505809.35340800002</v>
       </c>
       <c r="U55" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>91045.683613440007</v>
       </c>
       <c r="V55" s="24">
@@ -34567,7 +34565,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>511489.35340800002</v>
       </c>
       <c r="AA55" s="26">
@@ -34594,22 +34592,22 @@
         <v>0.2</v>
       </c>
       <c r="AH55" s="30">
-        <f>AB55*AI55</f>
+        <f t="shared" si="23"/>
         <v>230.72674657822023</v>
       </c>
       <c r="AI55" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ55" s="57">
-        <f>((AH55-AB55-(AH55*(AC55+AD55+AE55+AF55)))/AH55)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK55" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50.763149330841088</v>
       </c>
       <c r="AL55" s="33">
-        <f>AB55*AM55</f>
+        <f t="shared" si="25"/>
         <v>270.00056679504519</v>
       </c>
       <c r="AM55" s="34">
@@ -34618,12 +34616,12 @@
       <c r="AN55" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO55" s="35" t="e">
-        <f>#REF!*AN55</f>
-        <v>#REF!</v>
+      <c r="AO55" s="35">
+        <f t="shared" si="16"/>
+        <v>59.404167696612028</v>
       </c>
       <c r="AP55" s="36">
-        <f>J55</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR55" s="13"/>
@@ -34697,7 +34695,7 @@
         <v>500007.57972360984</v>
       </c>
       <c r="U56" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>90001.364350249773</v>
       </c>
       <c r="V56" s="24">
@@ -34713,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>505687.57972360984</v>
       </c>
       <c r="AA56" s="26">
@@ -34740,22 +34738,22 @@
         <v>0.2</v>
       </c>
       <c r="AH56" s="30">
-        <f>AB56*AI56</f>
+        <f t="shared" si="23"/>
         <v>228.12423798025219</v>
       </c>
       <c r="AI56" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ56" s="57">
-        <f>((AH56-AB56-(AH56*(AC56+AD56+AE56+AF56)))/AH56)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK56" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50.190560610405676</v>
       </c>
       <c r="AL56" s="33">
-        <f>AB56*AM56</f>
+        <f t="shared" si="25"/>
         <v>266.95506467203006</v>
       </c>
       <c r="AM56" s="34">
@@ -34764,12 +34762,12 @@
       <c r="AN56" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO56" s="35" t="e">
-        <f>#REF!*AN56</f>
-        <v>#REF!</v>
+      <c r="AO56" s="35">
+        <f t="shared" si="16"/>
+        <v>58.734111626050854</v>
       </c>
       <c r="AP56" s="36">
-        <f>J56</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR56" s="13"/>
@@ -34843,7 +34841,7 @@
         <v>500007.57972360984</v>
       </c>
       <c r="U57" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>90001.364350249773</v>
       </c>
       <c r="V57" s="24">
@@ -34859,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>505687.57972360984</v>
       </c>
       <c r="AA57" s="26">
@@ -34886,22 +34884,22 @@
         <v>0.2</v>
       </c>
       <c r="AH57" s="30">
-        <f>AB57*AI57</f>
+        <f t="shared" si="23"/>
         <v>228.12423798025219</v>
       </c>
       <c r="AI57" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ57" s="57">
-        <f>((AH57-AB57-(AH57*(AC57+AD57+AE57+AF57)))/AH57)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK57" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50.190560610405676</v>
       </c>
       <c r="AL57" s="33">
-        <f>AB57*AM57</f>
+        <f t="shared" si="25"/>
         <v>266.95506467203006</v>
       </c>
       <c r="AM57" s="34">
@@ -34910,12 +34908,12 @@
       <c r="AN57" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO57" s="35" t="e">
-        <f>#REF!*AN57</f>
-        <v>#REF!</v>
+      <c r="AO57" s="35">
+        <f t="shared" si="16"/>
+        <v>58.734111626050854</v>
       </c>
       <c r="AP57" s="36">
-        <f>J57</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR57" s="13"/>
@@ -34989,7 +34987,7 @@
         <v>521667.53481199994</v>
       </c>
       <c r="U58" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>93900.156266159989</v>
       </c>
       <c r="V58" s="24">
@@ -35005,7 +35003,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>527347.53481199988</v>
       </c>
       <c r="AA58" s="26">
@@ -35032,22 +35030,22 @@
         <v>0.2</v>
       </c>
       <c r="AH58" s="30">
-        <f>AB58*AI58</f>
+        <f t="shared" si="23"/>
         <v>237.84027007933301</v>
       </c>
       <c r="AI58" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ58" s="57">
-        <f>((AH58-AB58-(AH58*(AC58+AD58+AE58+AF58)))/AH58)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK58" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>52.328225166697933</v>
       </c>
       <c r="AL58" s="33">
-        <f>AB58*AM58</f>
+        <f t="shared" si="25"/>
         <v>278.32493926462013</v>
       </c>
       <c r="AM58" s="34">
@@ -35056,12 +35054,12 @@
       <c r="AN58" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO58" s="35" t="e">
-        <f>#REF!*AN58</f>
-        <v>#REF!</v>
+      <c r="AO58" s="35">
+        <f t="shared" si="16"/>
+        <v>61.235654289479299</v>
       </c>
       <c r="AP58" s="36">
-        <f>J58</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR58" s="13"/>
@@ -35135,7 +35133,7 @@
         <v>520893.9649874146</v>
       </c>
       <c r="U59" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>93760.913697734621</v>
       </c>
       <c r="V59" s="24">
@@ -35151,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>526573.96498741466</v>
       </c>
       <c r="AA59" s="26">
@@ -35178,22 +35176,22 @@
         <v>0.2</v>
       </c>
       <c r="AH59" s="30">
-        <f>AB59*AI59</f>
+        <f t="shared" si="23"/>
         <v>237.49326893293727</v>
       </c>
       <c r="AI59" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ59" s="57">
-        <f>((AH59-AB59-(AH59*(AC59+AD59+AE59+AF59)))/AH59)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK59" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>52.251880003973206</v>
       </c>
       <c r="AL59" s="33">
-        <f>AB59*AM59</f>
+        <f t="shared" si="25"/>
         <v>277.91887231488477</v>
       </c>
       <c r="AM59" s="34">
@@ -35202,12 +35200,12 @@
       <c r="AN59" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO59" s="35" t="e">
-        <f>#REF!*AN59</f>
-        <v>#REF!</v>
+      <c r="AO59" s="35">
+        <f t="shared" si="16"/>
+        <v>61.146313480071143</v>
       </c>
       <c r="AP59" s="36">
-        <f>J59</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR59" s="13"/>
@@ -35281,7 +35279,7 @@
         <v>521667.53481199994</v>
       </c>
       <c r="U60" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>93900.156266159989</v>
       </c>
       <c r="V60" s="24">
@@ -35297,7 +35295,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>527347.53481199988</v>
       </c>
       <c r="AA60" s="26">
@@ -35324,22 +35322,22 @@
         <v>0.2</v>
       </c>
       <c r="AH60" s="30">
-        <f>AB60*AI60</f>
+        <f t="shared" si="23"/>
         <v>237.84027007933301</v>
       </c>
       <c r="AI60" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ60" s="57">
-        <f>((AH60-AB60-(AH60*(AC60+AD60+AE60+AF60)))/AH60)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK60" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>52.328225166697933</v>
       </c>
       <c r="AL60" s="33">
-        <f>AB60*AM60</f>
+        <f t="shared" si="25"/>
         <v>278.32493926462013</v>
       </c>
       <c r="AM60" s="34">
@@ -35348,12 +35346,12 @@
       <c r="AN60" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO60" s="35" t="e">
-        <f>#REF!*AN60</f>
-        <v>#REF!</v>
+      <c r="AO60" s="35">
+        <f t="shared" si="16"/>
+        <v>61.235654289479299</v>
       </c>
       <c r="AP60" s="36">
-        <f>J60</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR60" s="13"/>
@@ -35427,7 +35425,7 @@
         <v>375327.01048780489</v>
       </c>
       <c r="U61" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>67558.861887804873</v>
       </c>
       <c r="V61" s="24">
@@ -35443,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>381007.01048780489</v>
       </c>
       <c r="AA61" s="26">
@@ -35470,22 +35468,22 @@
         <v>0.2</v>
       </c>
       <c r="AH61" s="30">
-        <f>AB61*AI61</f>
+        <f t="shared" si="23"/>
         <v>172.19612511560157</v>
       </c>
       <c r="AI61" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ61" s="57">
-        <f>((AH61-AB61-(AH61*(AC61+AD61+AE61+AF61)))/AH61)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK61" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>37.885584324624723</v>
       </c>
       <c r="AL61" s="33">
-        <f>AB61*AM61</f>
+        <f t="shared" si="25"/>
         <v>201.50698638383054</v>
       </c>
       <c r="AM61" s="34">
@@ -35494,12 +35492,12 @@
       <c r="AN61" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO61" s="35" t="e">
-        <f>#REF!*AN61</f>
-        <v>#REF!</v>
+      <c r="AO61" s="35">
+        <f t="shared" si="16"/>
+        <v>44.334554379919382</v>
       </c>
       <c r="AP61" s="36">
-        <f>J61</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR61" s="13"/>
@@ -35573,7 +35571,7 @@
         <v>375327.01048780489</v>
       </c>
       <c r="U62" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>67558.861887804873</v>
       </c>
       <c r="V62" s="24">
@@ -35589,7 +35587,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>381007.01048780489</v>
       </c>
       <c r="AA62" s="26">
@@ -35616,22 +35614,22 @@
         <v>0.2</v>
       </c>
       <c r="AH62" s="30">
-        <f>AB62*AI62</f>
+        <f t="shared" si="23"/>
         <v>172.19612511560157</v>
       </c>
       <c r="AI62" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ62" s="57">
-        <f>((AH62-AB62-(AH62*(AC62+AD62+AE62+AF62)))/AH62)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK62" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>37.885584324624723</v>
       </c>
       <c r="AL62" s="33">
-        <f>AB62*AM62</f>
+        <f t="shared" si="25"/>
         <v>201.50698638383054</v>
       </c>
       <c r="AM62" s="34">
@@ -35640,12 +35638,12 @@
       <c r="AN62" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO62" s="35" t="e">
-        <f>#REF!*AN62</f>
-        <v>#REF!</v>
+      <c r="AO62" s="35">
+        <f t="shared" si="16"/>
+        <v>44.334554379919382</v>
       </c>
       <c r="AP62" s="36">
-        <f>J62</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR62" s="13"/>
@@ -35719,7 +35717,7 @@
         <v>375327.01048780489</v>
       </c>
       <c r="U63" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>67558.861887804873</v>
       </c>
       <c r="V63" s="24">
@@ -35735,7 +35733,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>381007.01048780489</v>
       </c>
       <c r="AA63" s="26">
@@ -35762,22 +35760,22 @@
         <v>0.2</v>
       </c>
       <c r="AH63" s="30">
-        <f>AB63*AI63</f>
+        <f t="shared" si="23"/>
         <v>172.19612511560157</v>
       </c>
       <c r="AI63" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ63" s="57">
-        <f>((AH63-AB63-(AH63*(AC63+AD63+AE63+AF63)))/AH63)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096999</v>
       </c>
       <c r="AK63" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>37.885584324624723</v>
       </c>
       <c r="AL63" s="33">
-        <f>AB63*AM63</f>
+        <f t="shared" si="25"/>
         <v>201.50698638383054</v>
       </c>
       <c r="AM63" s="34">
@@ -35786,12 +35784,12 @@
       <c r="AN63" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO63" s="35" t="e">
-        <f>#REF!*AN63</f>
-        <v>#REF!</v>
+      <c r="AO63" s="35">
+        <f t="shared" si="16"/>
+        <v>44.334554379919382</v>
       </c>
       <c r="AP63" s="36">
-        <f>J63</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR63" s="13"/>
@@ -35865,7 +35863,7 @@
         <v>336842.55851219513</v>
       </c>
       <c r="U64" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>60631.660532195121</v>
       </c>
       <c r="V64" s="24">
@@ -35881,7 +35879,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>342522.55851219513</v>
       </c>
       <c r="AA64" s="26">
@@ -35908,22 +35906,22 @@
         <v>0.2</v>
       </c>
       <c r="AH64" s="30">
-        <f>AB64*AI64</f>
+        <f t="shared" si="23"/>
         <v>154.93310821715104</v>
       </c>
       <c r="AI64" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ64" s="57">
-        <f>((AH64-AB64-(AH64*(AC64+AD64+AE64+AF64)))/AH64)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK64" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>34.08747631281782</v>
       </c>
       <c r="AL64" s="33">
-        <f>AB64*AM64</f>
+        <f t="shared" si="25"/>
         <v>181.30549515535731</v>
       </c>
       <c r="AM64" s="34">
@@ -35932,12 +35930,12 @@
       <c r="AN64" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO64" s="35" t="e">
-        <f>#REF!*AN64</f>
-        <v>#REF!</v>
+      <c r="AO64" s="35">
+        <f t="shared" si="16"/>
+        <v>39.889923811536875</v>
       </c>
       <c r="AP64" s="36">
-        <f>J64</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR64" s="13"/>
@@ -36011,7 +36009,7 @@
         <v>336842.55851219513</v>
       </c>
       <c r="U65" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>60631.660532195121</v>
       </c>
       <c r="V65" s="24">
@@ -36027,7 +36025,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>342522.55851219513</v>
       </c>
       <c r="AA65" s="26">
@@ -36054,22 +36052,22 @@
         <v>0.2</v>
       </c>
       <c r="AH65" s="30">
-        <f>AB65*AI65</f>
+        <f t="shared" si="23"/>
         <v>154.93310821715104</v>
       </c>
       <c r="AI65" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ65" s="57">
-        <f>((AH65-AB65-(AH65*(AC65+AD65+AE65+AF65)))/AH65)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK65" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>34.08747631281782</v>
       </c>
       <c r="AL65" s="33">
-        <f>AB65*AM65</f>
+        <f t="shared" si="25"/>
         <v>181.30549515535731</v>
       </c>
       <c r="AM65" s="34">
@@ -36078,12 +36076,12 @@
       <c r="AN65" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO65" s="35" t="e">
-        <f>#REF!*AN65</f>
-        <v>#REF!</v>
+      <c r="AO65" s="35">
+        <f t="shared" si="16"/>
+        <v>39.889923811536875</v>
       </c>
       <c r="AP65" s="36">
-        <f>J65</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR65" s="13"/>
@@ -36157,7 +36155,7 @@
         <v>336842.55851219513</v>
       </c>
       <c r="U66" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>60631.660532195121</v>
       </c>
       <c r="V66" s="24">
@@ -36173,7 +36171,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>342522.55851219513</v>
       </c>
       <c r="AA66" s="26">
@@ -36200,22 +36198,22 @@
         <v>0.2</v>
       </c>
       <c r="AH66" s="30">
-        <f>AB66*AI66</f>
+        <f t="shared" si="23"/>
         <v>154.93310821715104</v>
       </c>
       <c r="AI66" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ66" s="57">
-        <f>((AH66-AB66-(AH66*(AC66+AD66+AE66+AF66)))/AH66)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096993</v>
       </c>
       <c r="AK66" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>34.08747631281782</v>
       </c>
       <c r="AL66" s="33">
-        <f>AB66*AM66</f>
+        <f t="shared" si="25"/>
         <v>181.30549515535731</v>
       </c>
       <c r="AM66" s="34">
@@ -36224,12 +36222,12 @@
       <c r="AN66" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO66" s="35" t="e">
-        <f>#REF!*AN66</f>
-        <v>#REF!</v>
+      <c r="AO66" s="35">
+        <f t="shared" si="16"/>
+        <v>39.889923811536875</v>
       </c>
       <c r="AP66" s="36">
-        <f>J66</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR66" s="13"/>
@@ -36303,7 +36301,7 @@
         <v>727184.85712195106</v>
       </c>
       <c r="U67" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>130893.27428195119</v>
       </c>
       <c r="V67" s="24">
@@ -36319,7 +36317,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>732864.85712195106</v>
       </c>
       <c r="AA67" s="26">
@@ -36346,22 +36344,22 @@
         <v>0.2</v>
       </c>
       <c r="AH67" s="30">
-        <f>AB67*AI67</f>
+        <f t="shared" si="23"/>
         <v>330.02942247286325</v>
       </c>
       <c r="AI67" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ67" s="57">
-        <f>((AH67-AB67-(AH67*(AC67+AD67+AE67+AF67)))/AH67)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK67" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>72.611143289716267</v>
       </c>
       <c r="AL67" s="33">
-        <f>AB67*AM67</f>
+        <f t="shared" si="25"/>
         <v>386.20633475844278</v>
       </c>
       <c r="AM67" s="34">
@@ -36370,12 +36368,12 @@
       <c r="AN67" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO67" s="35" t="e">
-        <f>#REF!*AN67</f>
-        <v>#REF!</v>
+      <c r="AO67" s="35">
+        <f t="shared" si="16"/>
+        <v>84.971176719416547</v>
       </c>
       <c r="AP67" s="36">
-        <f>J67</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR67" s="13"/>
@@ -36391,7 +36389,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="23">
-        <f t="shared" ref="D68:D70" si="20">IF(C68="USD",$D$2,$D$1)</f>
+        <f t="shared" ref="D68:D70" si="29">IF(C68="USD",$D$2,$D$1)</f>
         <v>5.4</v>
       </c>
       <c r="E68" s="24">
@@ -36404,7 +36402,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H70" si="21">(B68*E68)+F68</f>
+        <f t="shared" ref="H68:H70" si="30">(B68*E68)+F68</f>
         <v>60974.6</v>
       </c>
       <c r="I68" s="25">
@@ -36429,27 +36427,27 @@
         <v>214.5</v>
       </c>
       <c r="P68" s="24">
-        <f t="shared" ref="P68:P70" si="22">D68*H68*I68</f>
+        <f t="shared" ref="P68:P70" si="31">D68*H68*I68</f>
         <v>115241.99400000001</v>
       </c>
       <c r="Q68" s="24">
-        <f t="shared" ref="Q68:Q70" si="23">(H68+P68)*D68*J68</f>
+        <f t="shared" ref="Q68:Q70" si="32">(H68+P68)*D68*J68</f>
         <v>95156.960760000016</v>
       </c>
       <c r="R68" s="24">
-        <f t="shared" ref="R68:R70" si="24">D68*H68*K68</f>
+        <f t="shared" ref="R68:R70" si="33">D68*H68*K68</f>
         <v>6914.5196400000013</v>
       </c>
       <c r="S68" s="24">
-        <f t="shared" ref="S68:S70" si="25">D68*H68*L68</f>
+        <f t="shared" ref="S68:S70" si="34">D68*H68*L68</f>
         <v>35066.492460000001</v>
       </c>
       <c r="T68" s="24">
-        <f t="shared" ref="T68:T70" si="26">((H68*D68)+N68+O68+P68+Q68+R68+S68)/(1-M68)</f>
+        <f t="shared" ref="T68:T70" si="35">((H68*D68)+N68+O68+P68+Q68+R68+S68)/(1-M68)</f>
         <v>710691.52056097554</v>
       </c>
       <c r="U68" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>127924.47370097559</v>
       </c>
       <c r="V68" s="24">
@@ -36465,11 +36463,11 @@
         <v>0</v>
       </c>
       <c r="Z68" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>716371.52056097554</v>
       </c>
       <c r="AA68" s="26">
-        <f t="shared" ref="AA68:AA70" si="27">(AB68/(D68*B68))-1</f>
+        <f t="shared" ref="AA68:AA70" si="36">(AB68/(D68*B68))-1</f>
         <v>0.55954997463822931</v>
       </c>
       <c r="AB68" s="27">
@@ -36492,22 +36490,22 @@
         <v>0.2</v>
       </c>
       <c r="AH68" s="30">
-        <f>AB68*AI68</f>
+        <f t="shared" ref="AH68:AH99" si="37">AB68*AI68</f>
         <v>322.63098665924161</v>
       </c>
       <c r="AI68" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ68" s="57">
-        <f>((AH68-AB68-(AH68*(AC68+AD68+AE68+AF68)))/AH68)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK68" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>70.983382713227584</v>
       </c>
       <c r="AL68" s="33">
-        <f>AB68*AM68</f>
+        <f t="shared" ref="AL68:AL99" si="38">AB68*AM68</f>
         <v>377.54855280338285</v>
       </c>
       <c r="AM68" s="34">
@@ -36516,12 +36514,12 @@
       <c r="AN68" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO68" s="35" t="e">
-        <f>#REF!*AN68</f>
-        <v>#REF!</v>
+      <c r="AO68" s="35">
+        <f t="shared" si="16"/>
+        <v>83.066335047252622</v>
       </c>
       <c r="AP68" s="36">
-        <f>J68</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR68" s="13"/>
@@ -36537,7 +36535,7 @@
         <v>19</v>
       </c>
       <c r="D69" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>5.4</v>
       </c>
       <c r="E69" s="24">
@@ -36550,7 +36548,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>27070.609600000003</v>
       </c>
       <c r="I69" s="25">
@@ -36575,27 +36573,27 @@
         <v>214.5</v>
       </c>
       <c r="P69" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>51163.452144000003</v>
       </c>
       <c r="Q69" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>42246.393341760006</v>
       </c>
       <c r="R69" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>3069.8071286400004</v>
       </c>
       <c r="S69" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>15568.307580960001</v>
       </c>
       <c r="T69" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>316284.74638458539</v>
       </c>
       <c r="U69" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>56931.254349225368</v>
       </c>
       <c r="V69" s="24">
@@ -36611,15 +36609,15 @@
         <v>0</v>
       </c>
       <c r="Z69" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>321964.74638458539</v>
       </c>
       <c r="AA69" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.67230849976420637</v>
       </c>
       <c r="AB69" s="27">
-        <f t="shared" ref="AB69:AB70" si="28">((T69-Q69-U69)+V69+W69+X69+Y69)/E69</f>
+        <f t="shared" ref="AB69:AB70" si="39">((T69-Q69-U69)+V69+W69+X69+Y69)/E69</f>
         <v>80.139244134388477</v>
       </c>
       <c r="AC69" s="28">
@@ -36638,22 +36636,22 @@
         <v>0.2</v>
       </c>
       <c r="AH69" s="30">
-        <f>AB69*AI69</f>
+        <f t="shared" si="37"/>
         <v>145.71146571126278</v>
       </c>
       <c r="AI69" s="59">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ69" s="57">
-        <f>((AH69-AB69-(AH69*(AC69+AD69+AE69+AF69)))/AH69)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096996</v>
       </c>
       <c r="AK69" s="32">
-        <f t="shared" ref="AK69:AK70" si="29">AH69*AJ69</f>
+        <f t="shared" ref="AK69:AK70" si="40">AH69*AJ69</f>
         <v>32.058584463283864</v>
       </c>
       <c r="AL69" s="33">
-        <f>AB69*AM69</f>
+        <f t="shared" si="38"/>
         <v>170.51416410988176</v>
       </c>
       <c r="AM69" s="34">
@@ -36662,12 +36660,12 @@
       <c r="AN69" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO69" s="35" t="e">
-        <f>#REF!*AN69</f>
-        <v>#REF!</v>
+      <c r="AO69" s="35">
+        <f t="shared" ref="AO69:AO70" si="41">AL69*AN69</f>
+        <v>37.51566939161301</v>
       </c>
       <c r="AP69" s="36">
-        <f>J69</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR69" s="13"/>
@@ -36683,7 +36681,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>5.4</v>
       </c>
       <c r="E70" s="38">
@@ -36696,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>36910.414400000001</v>
       </c>
       <c r="I70" s="39">
@@ -36721,27 +36719,27 @@
         <v>214.5</v>
       </c>
       <c r="P70" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>69760.683216000005</v>
       </c>
       <c r="Q70" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>57602.392712640009</v>
       </c>
       <c r="R70" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>4185.6409929600004</v>
       </c>
       <c r="S70" s="38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>21227.179321440002</v>
       </c>
       <c r="T70" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>430751.67561346339</v>
       </c>
       <c r="U70" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>77535.301610423412</v>
       </c>
       <c r="V70" s="38">
@@ -36757,15 +36755,15 @@
         <v>0</v>
       </c>
       <c r="Z70" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>436431.67561346339</v>
       </c>
       <c r="AA70" s="40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.61676359703302897</v>
       </c>
       <c r="AB70" s="27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>102.97128547177033</v>
       </c>
       <c r="AC70" s="41">
@@ -36784,22 +36782,22 @@
         <v>0.2</v>
       </c>
       <c r="AH70" s="30">
-        <f>AB70*AI70</f>
+        <f t="shared" si="37"/>
         <v>187.22533627973311</v>
       </c>
       <c r="AI70" s="60">
         <v>1.8182286005457426</v>
       </c>
       <c r="AJ70" s="57">
-        <f>((AH70-AB70-(AH70*(AC70+AD70+AE70+AF70)))/AH70)</f>
+        <f t="shared" si="24"/>
         <v>0.22001415130096991</v>
       </c>
       <c r="AK70" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>41.192223463624174</v>
       </c>
       <c r="AL70" s="33">
-        <f>AB70*AM70</f>
+        <f t="shared" si="38"/>
         <v>219.09443817682086</v>
       </c>
       <c r="AM70" s="45">
@@ -36808,12 +36806,12 @@
       <c r="AN70" s="51">
         <v>0.22001497404894396</v>
       </c>
-      <c r="AO70" s="46" t="e">
-        <f>#REF!*AN70</f>
-        <v>#REF!</v>
+      <c r="AO70" s="46">
+        <f t="shared" si="41"/>
+        <v>48.204057129741201</v>
       </c>
       <c r="AP70" s="47">
-        <f>J70</f>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="AR70" s="13"/>
